--- a/cake box sale.xlsx
+++ b/cake box sale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunitha/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunitha/Desktop/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C6348F-E115-2C4C-8981-D38363D37133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF50D920-B05D-5443-82EC-79F79A6E950C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B500DBCD-C60C-B348-8A17-13A976A64156}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{B500DBCD-C60C-B348-8A17-13A976A64156}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DATE</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>01/O1/2022</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <dimension ref="E3:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,8 +753,8 @@
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="2">
-        <v>44602</v>
+      <c r="E44" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F44">
         <v>734.16</v>
